--- a/members.xlsx
+++ b/members.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walfaanaam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walfaanaam\Desktop\AWO_Celebrate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>Dhabasaa</t>
   </si>
   <si>
-    <t>Lalise</t>
-  </si>
-  <si>
     <t>Magarsaa</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>Dabalee</t>
   </si>
   <si>
-    <t>Debere</t>
-  </si>
-  <si>
-    <t>Fayera</t>
-  </si>
-  <si>
     <t>First_name</t>
   </si>
   <si>
@@ -123,6 +114,15 @@
   </si>
   <si>
     <t>Phone_number</t>
+  </si>
+  <si>
+    <t>Lalisee</t>
+  </si>
+  <si>
+    <t>Dabaree</t>
+  </si>
+  <si>
+    <t>Fayyeeraa</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0000000000"/>
+    <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -163,7 +163,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,98 +459,98 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>913942964</v>
+        <v>913952050</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>922948389</v>
+        <v>923605989</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>910045632</v>
+        <v>912659004</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>910452943</v>
+        <v>922948389</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>911853155</v>
+        <v>910452943</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>925382373</v>
+        <v>921761067</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="1">
-        <v>954846351</v>
+        <v>912861288</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>922956646</v>
@@ -558,98 +558,98 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>921761067</v>
+        <v>913235855</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
-        <v>913235855</v>
+        <v>948594041</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>985816078</v>
+        <v>911853155</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>913952050</v>
+        <v>985816078</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>923605989</v>
+        <v>913942964</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>912659004</v>
+        <v>925382373</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>912861288</v>
+        <v>910045632</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>948594041</v>
+        <v>954846351</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>912214364</v>
